--- a/NH_site_data_comprehensive.xlsx
+++ b/NH_site_data_comprehensive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rishzeru/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1EAE86-2CCF-EF44-9ABA-FC6ED0F88271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AA5A0C-3C8B-B04E-8CD3-6855CFC60D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="137">
   <si>
     <t>Organization Name</t>
   </si>
@@ -169,9 +169,6 @@
     <t>Greater Manchester, NH</t>
   </si>
   <si>
-    <t>Southern NH</t>
-  </si>
-  <si>
     <t>Londonderry, NH</t>
   </si>
   <si>
@@ -184,7 +181,7 @@
     <t>9 Townsend West, Nashua, NH; (603) 881‑4972</t>
   </si>
   <si>
-    <t>200 Derry Road, Hudson, NH 03051; (603) 886-1260</t>
+    <t>200 Derry Road, Hudson, NH 03051; (603) 886‑1260</t>
   </si>
   <si>
     <t>379 Belmont Rd, Laconia, NH 03246; (603) 524‑3207</t>
@@ -223,7 +220,7 @@
     <t>via Xello platform</t>
   </si>
   <si>
-    <t>apprentice@caphr.org; (603) 668‑8010</t>
+    <t>40 Pine Street, Manchester, NH 03108; (603) 668-8010; (800) 322-1073; (800) 877-8339 (Hearing Impaired)</t>
   </si>
   <si>
     <t>via NH Connections website</t>
@@ -440,16 +437,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -462,6 +451,23 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -498,17 +504,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -814,24 +821,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="84" customWidth="1"/>
-    <col min="2" max="2" width="69.33203125" customWidth="1"/>
-    <col min="3" max="3" width="77" customWidth="1"/>
-    <col min="4" max="4" width="69" customWidth="1"/>
-    <col min="5" max="5" width="107.1640625" customWidth="1"/>
-    <col min="6" max="6" width="73.83203125" customWidth="1"/>
-    <col min="7" max="7" width="74.83203125" customWidth="1"/>
+    <col min="1" max="1" width="72.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="113" style="2" customWidth="1"/>
+    <col min="3" max="3" width="74.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="119.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="109.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="120.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="102.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="60.1640625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -853,511 +862,512 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="D22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E20" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="E22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" s="2" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/NH_site_data_comprehensive.xlsx
+++ b/NH_site_data_comprehensive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rishzeru/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AA5A0C-3C8B-B04E-8CD3-6855CFC60D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB689438-B1CA-0A4D-B609-E1F9CE391F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="143">
   <si>
     <t>Organization Name</t>
   </si>
@@ -139,7 +139,7 @@
     <t>Manchester, NH</t>
   </si>
   <si>
-    <t>Nashua, NH</t>
+    <t>486 Amherst St., Suite 1, Nashua, NH 03063</t>
   </si>
   <si>
     <t>Hudson, NH</t>
@@ -151,88 +151,110 @@
     <t>Portsmouth, NH</t>
   </si>
   <si>
+    <t>26 College Drive, Concord, NH 03301</t>
+  </si>
+  <si>
+    <t>Concord, NH (statewide)</t>
+  </si>
+  <si>
+    <t>55 Bradley Street, Concord, NH 03301</t>
+  </si>
+  <si>
+    <t>Stratham, NH</t>
+  </si>
+  <si>
+    <t>464 Chestnut St., P.O. Box 448, Manchester, NH 03105</t>
+  </si>
+  <si>
     <t>Concord, NH</t>
   </si>
   <si>
-    <t>Concord, NH (statewide)</t>
-  </si>
-  <si>
-    <t>Concord/Kingswood region, NH</t>
-  </si>
-  <si>
-    <t>Stratham, NH</t>
+    <t>Greater Manchester, NH</t>
   </si>
   <si>
     <t>Statewide, NH</t>
   </si>
   <si>
-    <t>Greater Manchester, NH</t>
-  </si>
-  <si>
-    <t>Londonderry, NH</t>
+    <t>40 Pine Street, Manchester, NH 03108</t>
+  </si>
+  <si>
+    <t>88 Temple Street, Nashua, NH 03060</t>
+  </si>
+  <si>
+    <t>45 South Fruit Street, Concord NH 03301</t>
+  </si>
+  <si>
+    <t>125 Airport Road, Concord, NH 03301</t>
+  </si>
+  <si>
+    <t>1066 Front Street, Manchester, NH 03102</t>
   </si>
   <si>
     <t>25 Alumni Dr, Dover, NH 03820; (603) 516‑6978</t>
   </si>
   <si>
-    <t>100 Gerald Connors Circle, Manchester, NH; (603) 624‑6363</t>
-  </si>
-  <si>
-    <t>9 Townsend West, Nashua, NH; (603) 881‑4972</t>
-  </si>
-  <si>
-    <t>200 Derry Road, Hudson, NH 03051; (603) 886‑1260</t>
+    <t>100 Gerald Connors Circle, Manchester, NH</t>
+  </si>
+  <si>
+    <t>(603) 595-4705 | Fax: (603) 262-9163</t>
+  </si>
+  <si>
+    <t>200 Derry Road, Hudson, NH 03051
+Phone: 603-886-1260
+Fax: 603-816-3513</t>
   </si>
   <si>
     <t>379 Belmont Rd, Laconia, NH 03246; (603) 524‑3207</t>
   </si>
   <si>
-    <t>320 Corporate Dr, Portsmouth, NH 03801; (603) 427‑7600</t>
-  </si>
-  <si>
-    <t>26 College Dr, Concord, NH 03301; (603) 230‑3520</t>
-  </si>
-  <si>
-    <t>info@youthwellnh.org; (603) 867‑6121</t>
+    <t>Tel: 603-427-7600 | 1-800-522-1194 | Fax: 603-334-6308</t>
+  </si>
+  <si>
+    <t>(603) 230-3504 | Tech: (603) 230-3500 | Fax: (603) 271-2725</t>
+  </si>
+  <si>
+    <t>YouthWell New Hampshire
+P.O. Box 1568 Nashua, NH 03061
+Phone: 603-595-0812</t>
   </si>
   <si>
     <t>555 Union St, Manchester, NH 03104; (603) 625‑5982; info@bgcgm.org</t>
   </si>
   <si>
-    <t>2572 North Main St, Lisbon, NH 03585; (603) 838‑5954</t>
+    <t>(603) 224-1061</t>
   </si>
   <si>
     <t>3 Portsmouth Ave #2, Stratham, NH 03885; (603) 430‑1140</t>
   </si>
   <si>
-    <t>Crisis Line: 800‑640‑6486</t>
-  </si>
-  <si>
-    <t>(603) 271‑7275</t>
+    <t>TEL: (603) 518-4000 | FAX: (603) 668-6260</t>
+  </si>
+  <si>
+    <t>not avaliable</t>
   </si>
   <si>
     <t>(603) 230‑3527; apprenticeshipusanh@ccsnh.edu</t>
   </si>
   <si>
-    <t>via website</t>
-  </si>
-  <si>
     <t>via Xello platform</t>
   </si>
   <si>
-    <t>40 Pine Street, Manchester, NH 03108; (603) 668-8010; (800) 322-1073; (800) 877-8339 (Hearing Impaired)</t>
-  </si>
-  <si>
-    <t>via NH Connections website</t>
-  </si>
-  <si>
-    <t>(603) 228‑4100</t>
+    <t>Local: (603) 668-8010 | Toll Free: (800) 322-1073 | Hearing Impaired: (800) 877-8339</t>
+  </si>
+  <si>
+    <t>Call: 1-855-393-1731 OR (603) 578-1386</t>
+  </si>
+  <si>
+    <t>(603) 225-1446 / (603) 225-1444 | Fax: (603) 226-7761</t>
+  </si>
+  <si>
+    <t>603-224-3311 | 1-800-852-3400 | TDD: 1-800-735-2964</t>
   </si>
   <si>
     <t>via HealthForceNH site</t>
   </si>
   <si>
-    <t>(603) 206‑8160</t>
+    <t>(603) 206-8000</t>
   </si>
   <si>
     <t>19 CTE programs: Automotive, Culinary, Electrical, Health Science, Welding, Fire Science, Pre-Engineering</t>
@@ -821,26 +843,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="113" style="2" customWidth="1"/>
-    <col min="3" max="3" width="74.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="119.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="109.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="120.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="102.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="60.1640625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="89.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="85" style="2" customWidth="1"/>
+    <col min="4" max="4" width="112.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="150.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="145.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="103" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,9 +883,8 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -875,19 +895,19 @@
         <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -898,19 +918,19 @@
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -921,19 +941,19 @@
         <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -944,19 +964,19 @@
         <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -967,19 +987,19 @@
         <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -990,19 +1010,19 @@
         <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1013,19 +1033,19 @@
         <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1036,19 +1056,19 @@
         <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1059,19 +1079,19 @@
         <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1082,19 +1102,19 @@
         <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1105,19 +1125,19 @@
         <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1128,19 +1148,19 @@
         <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1148,22 +1168,22 @@
         <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1171,22 +1191,22 @@
         <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -1194,19 +1214,19 @@
         <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1217,19 +1237,19 @@
         <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1240,19 +1260,19 @@
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1263,19 +1283,19 @@
         <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1286,19 +1306,19 @@
         <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1309,19 +1329,19 @@
         <v>36</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1332,19 +1352,19 @@
         <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1355,19 +1375,19 @@
         <v>36</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/NH_site_data_comprehensive.xlsx
+++ b/NH_site_data_comprehensive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rishzeru/Desktop/research/NYU New York summer research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49743F2-7F3C-A54A-BE71-8B3ADEA7A804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB2AEA2-AF24-D54B-8AD7-69D23FE993B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1017,7 +1017,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1030,14 +1030,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1057,21 +1051,6 @@
       </top>
       <bottom style="thin">
         <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,21 +1078,6 @@
       </right>
       <top style="thin">
         <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -1156,20 +1120,17 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1178,19 +1139,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2323,995 +2278,927 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="63.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="80.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="84.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="69.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="69.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="53" style="1" customWidth="1"/>
-    <col min="12" max="12" width="137.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="132.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.33203125" style="1"/>
+    <col min="1" max="1" width="50.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="63.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="80.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="84.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="69.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="69.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="53" style="1" customWidth="1"/>
+    <col min="11" max="11" width="137.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="132.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="9" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="L3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="H4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="9" t="s">
+      <c r="J4" s="7"/>
+      <c r="K4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="L4" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="44" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="H5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="9" t="s">
+      <c r="J5" s="7"/>
+      <c r="K5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="L5" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="H6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="I6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="9" t="s">
+      <c r="J6" s="7"/>
+      <c r="K6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="L6" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="H7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="I7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="J7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="K7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="L7" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" s="9" t="s">
+      <c r="H8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="44" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="H9" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" s="9" t="s">
+      <c r="I9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="K9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="L9" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="G10" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="H10" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" s="9" t="s">
+      <c r="I10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="K10" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="L10" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="G11" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="H11" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" s="9" t="s">
+      <c r="I11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="L11" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="F12" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="G12" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="H12" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" s="9" t="s">
+      <c r="I12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="K12" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="L12" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
-        <v>11</v>
-      </c>
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="G13" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="H13" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="I13" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="J13" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="K13" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="L13" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="F14" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="G14" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="H14" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="I14" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="J14" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="K14" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="L14" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="G15" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="H15" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="I15" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="J15" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="K15" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="L15" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
-        <v>14</v>
-      </c>
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="E16" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="F16" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="G16" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M16" s="9" t="s">
+      <c r="H16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
-        <v>15</v>
-      </c>
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="F17" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="G17" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="H17" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="I17" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="J17" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="K17" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="L17" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8" t="s">
+    <row r="18" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="E18" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="F18" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="G18" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M18" s="9" t="s">
+      <c r="H18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
-        <v>17</v>
-      </c>
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="F19" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="G19" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M19" s="9" t="s">
+      <c r="H19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
-        <v>18</v>
-      </c>
-      <c r="B20" s="8" t="s">
+    <row r="20" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="E20" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="F20" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="G20" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="H20" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="I20" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="J20" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L20" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M20" s="9" t="s">
+      <c r="K20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
-        <v>19</v>
-      </c>
-      <c r="B21" s="8" t="s">
+    <row r="21" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="E21" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="F21" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="G21" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M21" s="9" t="s">
+      <c r="H21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8" t="s">
+    <row r="22" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="E22" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="F22" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="G22" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7">
-        <v>21</v>
-      </c>
-      <c r="B23" s="8" t="s">
+    <row r="23" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="E23" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="F23" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="G23" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M23" s="9" t="s">
+      <c r="H23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="M4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="M5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="M6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="M7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="M9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E10" r:id="rId16" display="info@bgcgm.org" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="M10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="M11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="M12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="M13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="M14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E15" r:id="rId27" display="apprenticeshipusanh@ccsnh.edu" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="M15" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="G16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="M17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="G19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="M20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G21" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G23" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="L5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="L6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D10" r:id="rId16" display="info@bgcgm.org" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="L12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="L14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D15" r:id="rId27" display="apprenticeshipusanh@ccsnh.edu" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="L15" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="L20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F21" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="F23" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
